--- a/SelectedFields.xlsx
+++ b/SelectedFields.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>empId</t>
   </si>
@@ -35,7 +35,7 @@
     <t>charan</t>
   </si>
   <si>
-    <t/>
+    <t>44</t>
   </si>
   <si>
     <t>java</t>
@@ -50,12 +50,18 @@
     <t>jayakanth</t>
   </si>
   <si>
+    <t>23</t>
+  </si>
+  <si>
     <t>500</t>
   </si>
   <si>
     <t>vignesh</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>SDE</t>
   </si>
   <si>
@@ -65,94 +71,118 @@
     <t>karthik</t>
   </si>
   <si>
-    <t>23</t>
-  </si>
-  <si>
     <t>SAP</t>
   </si>
   <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>abhilash</t>
-  </si>
-  <si>
-    <t>DataAnalyst</t>
+    <t>200</t>
+  </si>
+  <si>
+    <t>abhi</t>
+  </si>
+  <si>
+    <t>14000</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>Vineeth</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>QualityA</t>
+  </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>Harsha</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>30000</t>
+  </si>
+  <si>
+    <t>arjun</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>frontend</t>
+  </si>
+  <si>
+    <t>23000</t>
+  </si>
+  <si>
+    <t>java developer</t>
+  </si>
+  <si>
+    <t>46000</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>oye</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>tech stack</t>
+  </si>
+  <si>
+    <t>arjun das</t>
+  </si>
+  <si>
+    <t>python dev</t>
   </si>
   <si>
     <t>15000</t>
   </si>
   <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>abhi</t>
-  </si>
-  <si>
-    <t>14000</t>
-  </si>
-  <si>
-    <t>507</t>
-  </si>
-  <si>
-    <t>Vineeth</t>
-  </si>
-  <si>
-    <t>QualityA</t>
-  </si>
-  <si>
-    <t>50000</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>Harsha</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>arjun</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>frontend</t>
-  </si>
-  <si>
-    <t>23000</t>
-  </si>
-  <si>
-    <t>java developer</t>
-  </si>
-  <si>
-    <t>46000</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>oye</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>tech stack</t>
-  </si>
-  <si>
-    <t>arjun das</t>
-  </si>
-  <si>
-    <t>python dev</t>
+    <t>987</t>
+  </si>
+  <si>
+    <t>vasudev</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>devops</t>
+  </si>
+  <si>
+    <t>17000</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>bharat</t>
+  </si>
+  <si>
+    <t>specialist programmer</t>
+  </si>
+  <si>
+    <t>345</t>
+  </si>
+  <si>
+    <t>jay kancharla</t>
+  </si>
+  <si>
+    <t>java dev</t>
+  </si>
+  <si>
+    <t>24000</t>
   </si>
 </sst>
 </file>
@@ -197,7 +227,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -245,7 +275,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s" s="0">
         <v>8</v>
@@ -256,16 +286,16 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s" s="0">
         <v>9</v>
@@ -273,16 +303,16 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s" s="0">
         <v>9</v>
@@ -290,16 +320,16 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s" s="0">
         <v>22</v>
@@ -313,115 +343,149 @@
         <v>24</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="E10" t="s" s="0">
         <v>37</v>
-      </c>
-      <c r="E10" t="s" s="0">
-        <v>38</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s" s="0">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>42</v>
       </c>
       <c r="C12" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="D12" t="s" s="0">
+      <c r="E12" t="s" s="0">
         <v>44</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s" s="0">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s" s="0">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s" s="0">
         <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
